--- a/data/pca/factorExposure/factorExposure_2015-08-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-08-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,21 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +720,112 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.0248468741329571</v>
+        <v>0.01819463425434955</v>
       </c>
       <c r="C2">
-        <v>-0.03167402528216202</v>
+        <v>0.04674300350930422</v>
       </c>
       <c r="D2">
-        <v>0.1322859829398254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1403692958292336</v>
+      </c>
+      <c r="E2">
+        <v>-0.003341308683521141</v>
+      </c>
+      <c r="F2">
+        <v>0.001149811975603583</v>
+      </c>
+      <c r="G2">
+        <v>0.1106810194416468</v>
+      </c>
+      <c r="H2">
+        <v>-0.02858413837960296</v>
+      </c>
+      <c r="I2">
+        <v>0.05308572341808285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.01261571886902694</v>
+        <v>-0.01463111221283378</v>
       </c>
       <c r="C3">
-        <v>-0.04784568264695332</v>
+        <v>0.03136644773488367</v>
       </c>
       <c r="D3">
-        <v>0.06339332582256725</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.04441392959382777</v>
+      </c>
+      <c r="E3">
+        <v>-0.04420415369815705</v>
+      </c>
+      <c r="F3">
+        <v>-0.01456953806190642</v>
+      </c>
+      <c r="G3">
+        <v>0.118792654047627</v>
+      </c>
+      <c r="H3">
+        <v>-0.02268591740902693</v>
+      </c>
+      <c r="I3">
+        <v>-0.07431472487761528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03771161578174004</v>
+        <v>0.02858613904724121</v>
       </c>
       <c r="C4">
-        <v>-0.07320701240873485</v>
+        <v>0.09015439911594597</v>
       </c>
       <c r="D4">
-        <v>0.1411186025580811</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1517448872725861</v>
+      </c>
+      <c r="E4">
+        <v>-0.02215231921238334</v>
+      </c>
+      <c r="F4">
+        <v>-0.08229977616029102</v>
+      </c>
+      <c r="G4">
+        <v>-0.001337524981265364</v>
+      </c>
+      <c r="H4">
+        <v>-0.04364015438189232</v>
+      </c>
+      <c r="I4">
+        <v>-0.009022063808485282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +836,344 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02601388058137314</v>
+        <v>0.02548952860336714</v>
       </c>
       <c r="C6">
-        <v>-0.01947464800379725</v>
+        <v>0.03240219328625232</v>
       </c>
       <c r="D6">
-        <v>0.1570550656010323</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1375136855258413</v>
+      </c>
+      <c r="E6">
+        <v>0.03016800406066546</v>
+      </c>
+      <c r="F6">
+        <v>-0.05752296934001341</v>
+      </c>
+      <c r="G6">
+        <v>0.05294503866712229</v>
+      </c>
+      <c r="H6">
+        <v>-0.01526259212963939</v>
+      </c>
+      <c r="I6">
+        <v>-0.02793955895285957</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.01375968660082735</v>
+        <v>0.009282747873677832</v>
       </c>
       <c r="C7">
-        <v>-0.02915191675649235</v>
+        <v>0.03714272043427785</v>
       </c>
       <c r="D7">
-        <v>0.1189300380747229</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09683755501532781</v>
+      </c>
+      <c r="E7">
+        <v>0.03972741134296501</v>
+      </c>
+      <c r="F7">
+        <v>-0.0115800591953558</v>
+      </c>
+      <c r="G7">
+        <v>0.05022169297795719</v>
+      </c>
+      <c r="H7">
+        <v>-0.04411468472447904</v>
+      </c>
+      <c r="I7">
+        <v>-0.05603772088509753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.004517372848380469</v>
+        <v>-0.002173767557253982</v>
       </c>
       <c r="C8">
-        <v>-0.03446819340107194</v>
+        <v>0.04006669767653186</v>
       </c>
       <c r="D8">
-        <v>0.08260961422924429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.08130809989914746</v>
+      </c>
+      <c r="E8">
+        <v>0.01064307841766532</v>
+      </c>
+      <c r="F8">
+        <v>-0.04944582400518609</v>
+      </c>
+      <c r="G8">
+        <v>0.08577779480824681</v>
+      </c>
+      <c r="H8">
+        <v>0.02429612558467262</v>
+      </c>
+      <c r="I8">
+        <v>-0.02291485229101729</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.03106339600969545</v>
+        <v>0.0213675027838332</v>
       </c>
       <c r="C9">
-        <v>-0.06852256230560438</v>
+        <v>0.08019430760242616</v>
       </c>
       <c r="D9">
-        <v>0.1315592460778388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1261466595366995</v>
+      </c>
+      <c r="E9">
+        <v>-0.01165595954889601</v>
+      </c>
+      <c r="F9">
+        <v>-0.04882129911419963</v>
+      </c>
+      <c r="G9">
+        <v>-0.00085772867816991</v>
+      </c>
+      <c r="H9">
+        <v>-0.04496815928052349</v>
+      </c>
+      <c r="I9">
+        <v>-0.01498113880841896</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1550282347122097</v>
+        <v>0.2069792411848201</v>
       </c>
       <c r="C10">
-        <v>0.1684216335332942</v>
+        <v>-0.1347523688788409</v>
       </c>
       <c r="D10">
-        <v>0.009973140473487459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.0128287673511208</v>
+      </c>
+      <c r="E10">
+        <v>-0.02775511797519674</v>
+      </c>
+      <c r="F10">
+        <v>-0.05112508068979142</v>
+      </c>
+      <c r="G10">
+        <v>-0.01478064197395689</v>
+      </c>
+      <c r="H10">
+        <v>0.06547145179588541</v>
+      </c>
+      <c r="I10">
+        <v>-0.07636764550076301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02544605504043332</v>
+        <v>0.01694133963572898</v>
       </c>
       <c r="C11">
-        <v>-0.04501421183184742</v>
+        <v>0.0542205942415322</v>
       </c>
       <c r="D11">
-        <v>0.06057029831184731</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05190432363051319</v>
+      </c>
+      <c r="E11">
+        <v>0.01938983838033798</v>
+      </c>
+      <c r="F11">
+        <v>0.01350234261319686</v>
+      </c>
+      <c r="G11">
+        <v>0.01870333456515853</v>
+      </c>
+      <c r="H11">
+        <v>-0.04073163445472874</v>
+      </c>
+      <c r="I11">
+        <v>-0.009307148183040856</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02664202524215694</v>
+        <v>0.01743612010140324</v>
       </c>
       <c r="C12">
-        <v>-0.0426597213768266</v>
+        <v>0.05052788605601092</v>
       </c>
       <c r="D12">
-        <v>0.06974428655641832</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05240473056787042</v>
+      </c>
+      <c r="E12">
+        <v>0.01491500525707218</v>
+      </c>
+      <c r="F12">
+        <v>0.0165182706673032</v>
+      </c>
+      <c r="G12">
+        <v>0.01681663119970157</v>
+      </c>
+      <c r="H12">
+        <v>-0.06494611735212832</v>
+      </c>
+      <c r="I12">
+        <v>-0.02397718520757964</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.004288921738736615</v>
+        <v>0.005625392778807158</v>
       </c>
       <c r="C13">
-        <v>-0.03213005112531749</v>
+        <v>0.04591223125097411</v>
       </c>
       <c r="D13">
-        <v>0.1570123269243507</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1605492578679175</v>
+      </c>
+      <c r="E13">
+        <v>0.03712833524647911</v>
+      </c>
+      <c r="F13">
+        <v>-0.04259774465286113</v>
+      </c>
+      <c r="G13">
+        <v>0.05893532732310813</v>
+      </c>
+      <c r="H13">
+        <v>-0.03377591990480938</v>
+      </c>
+      <c r="I13">
+        <v>-0.07212688742272129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.0002525058563475301</v>
+        <v>0.001252780806706027</v>
       </c>
       <c r="C14">
-        <v>-0.02473791627151622</v>
+        <v>0.02973720414741891</v>
       </c>
       <c r="D14">
-        <v>0.1143289328487708</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.1079783523486369</v>
+      </c>
+      <c r="E14">
+        <v>0.01727986009004391</v>
+      </c>
+      <c r="F14">
+        <v>-0.01676095994467493</v>
+      </c>
+      <c r="G14">
+        <v>0.07065559617155209</v>
+      </c>
+      <c r="H14">
+        <v>-0.08468119373402264</v>
+      </c>
+      <c r="I14">
+        <v>-0.02263823670353046</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.004291605526746602</v>
+        <v>-0.0003780939928935532</v>
       </c>
       <c r="C15">
-        <v>-0.006262515650580845</v>
+        <v>0.01646997527519655</v>
       </c>
       <c r="D15">
-        <v>0.0151027383536235</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04351875780515776</v>
+      </c>
+      <c r="E15">
+        <v>0.002928840242221959</v>
+      </c>
+      <c r="F15">
+        <v>-0.001700127196109664</v>
+      </c>
+      <c r="G15">
+        <v>0.02113399379721972</v>
+      </c>
+      <c r="H15">
+        <v>-0.007400803472835129</v>
+      </c>
+      <c r="I15">
+        <v>0.02021026559934717</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.02571228769478661</v>
+        <v>0.01848410185088957</v>
       </c>
       <c r="C16">
-        <v>-0.04226860187740206</v>
+        <v>0.05046440318261142</v>
       </c>
       <c r="D16">
-        <v>0.07088526359626797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05508644179707654</v>
+      </c>
+      <c r="E16">
+        <v>0.01862922619652353</v>
+      </c>
+      <c r="F16">
+        <v>0.008655393101059037</v>
+      </c>
+      <c r="G16">
+        <v>0.01687044568941948</v>
+      </c>
+      <c r="H16">
+        <v>-0.05297169811813934</v>
+      </c>
+      <c r="I16">
+        <v>-0.01347324360569437</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1184,25 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1213,257 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.006521452820148791</v>
+        <v>0.002169275519267679</v>
       </c>
       <c r="C19">
-        <v>-0.02879106821431343</v>
+        <v>0.02494574282059838</v>
       </c>
       <c r="D19">
-        <v>0.1590063974826726</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1083604200954817</v>
+      </c>
+      <c r="E19">
+        <v>-0.02157308823935261</v>
+      </c>
+      <c r="F19">
+        <v>-0.006852938463992421</v>
+      </c>
+      <c r="G19">
+        <v>0.0469172645382138</v>
+      </c>
+      <c r="H19">
+        <v>-0.06181139620390061</v>
+      </c>
+      <c r="I19">
+        <v>-0.03419448551685637</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.008829358481818348</v>
+        <v>0.007595717803856756</v>
       </c>
       <c r="C20">
-        <v>-0.03392133742770479</v>
+        <v>0.04121541870499983</v>
       </c>
       <c r="D20">
-        <v>0.1036850456640603</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1051590613555609</v>
+      </c>
+      <c r="E20">
+        <v>-0.005352039585464105</v>
+      </c>
+      <c r="F20">
+        <v>-0.02866280199718087</v>
+      </c>
+      <c r="G20">
+        <v>0.04680383349192328</v>
+      </c>
+      <c r="H20">
+        <v>-0.05379514047647584</v>
+      </c>
+      <c r="I20">
+        <v>-0.02367486875925796</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.007869254709555623</v>
+        <v>0.00403737857199453</v>
       </c>
       <c r="C21">
-        <v>-0.03910773914108436</v>
+        <v>0.0464500499155088</v>
       </c>
       <c r="D21">
-        <v>0.1839619403788466</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1566593980668952</v>
+      </c>
+      <c r="E21">
+        <v>-0.01839379794609321</v>
+      </c>
+      <c r="F21">
+        <v>-0.06161974856285447</v>
+      </c>
+      <c r="G21">
+        <v>0.0822494063071343</v>
+      </c>
+      <c r="H21">
+        <v>-0.1147968876143355</v>
+      </c>
+      <c r="I21">
+        <v>-0.08872324980510107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>-0.001608650050617123</v>
+        <v>-0.002478470304271063</v>
       </c>
       <c r="C22">
-        <v>-0.05449414541298327</v>
+        <v>0.06535954205550815</v>
       </c>
       <c r="D22">
-        <v>0.1649383255043379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.2210706954681896</v>
+      </c>
+      <c r="E22">
+        <v>0.0441561324473991</v>
+      </c>
+      <c r="F22">
+        <v>-0.0349218095093007</v>
+      </c>
+      <c r="G22">
+        <v>0.06957992917913773</v>
+      </c>
+      <c r="H22">
+        <v>0.460033903844098</v>
+      </c>
+      <c r="I22">
+        <v>0.3146854446901862</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>-0.001437580771594488</v>
+        <v>-0.002045601085301057</v>
       </c>
       <c r="C23">
-        <v>-0.0548900481423986</v>
+        <v>0.06617767153787918</v>
       </c>
       <c r="D23">
-        <v>0.1644877027754565</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.2217135047112462</v>
+      </c>
+      <c r="E23">
+        <v>0.04132491262126459</v>
+      </c>
+      <c r="F23">
+        <v>-0.03387147571756075</v>
+      </c>
+      <c r="G23">
+        <v>0.0679288220256444</v>
+      </c>
+      <c r="H23">
+        <v>0.4599044894000835</v>
+      </c>
+      <c r="I23">
+        <v>0.3160121308962363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.02990418910954049</v>
+        <v>0.01800615212018335</v>
       </c>
       <c r="C24">
-        <v>-0.05885502072767419</v>
+        <v>0.06491447498977682</v>
       </c>
       <c r="D24">
-        <v>0.07320513124163934</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05670549506465657</v>
+      </c>
+      <c r="E24">
+        <v>0.01818712056275609</v>
+      </c>
+      <c r="F24">
+        <v>0.005272288398840581</v>
+      </c>
+      <c r="G24">
+        <v>0.02672651300644202</v>
+      </c>
+      <c r="H24">
+        <v>-0.06554257960418321</v>
+      </c>
+      <c r="I24">
+        <v>-0.01125043892472557</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03445105723333486</v>
+        <v>0.02276610318153957</v>
       </c>
       <c r="C25">
-        <v>-0.05115385659218164</v>
+        <v>0.06165468149044312</v>
       </c>
       <c r="D25">
-        <v>0.0721469273333924</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05915846457629675</v>
+      </c>
+      <c r="E25">
+        <v>0.007931040558121652</v>
+      </c>
+      <c r="F25">
+        <v>0.009016623330534696</v>
+      </c>
+      <c r="G25">
+        <v>0.01142949486201146</v>
+      </c>
+      <c r="H25">
+        <v>-0.04177610401708166</v>
+      </c>
+      <c r="I25">
+        <v>-0.01486984922690915</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.008873100037464823</v>
+        <v>0.007422565197544308</v>
       </c>
       <c r="C26">
-        <v>-0.01503058708982827</v>
+        <v>0.02343183894294582</v>
       </c>
       <c r="D26">
-        <v>0.07830666485427441</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.07069544463507764</v>
+      </c>
+      <c r="E26">
+        <v>0.01250297050528447</v>
+      </c>
+      <c r="F26">
+        <v>-0.02297514455639183</v>
+      </c>
+      <c r="G26">
+        <v>0.04646296206470008</v>
+      </c>
+      <c r="H26">
+        <v>-0.05992328615310722</v>
+      </c>
+      <c r="I26">
+        <v>-0.03242242727331283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1474,286 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2320993235398165</v>
+        <v>0.2955909879049819</v>
       </c>
       <c r="C28">
-        <v>0.2192092377213362</v>
+        <v>-0.1653466502597432</v>
       </c>
       <c r="D28">
-        <v>0.006517658856802619</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.001408814770998663</v>
+      </c>
+      <c r="E28">
+        <v>-0.04460693677176678</v>
+      </c>
+      <c r="F28">
+        <v>-0.04304209643150066</v>
+      </c>
+      <c r="G28">
+        <v>-0.04010297614693175</v>
+      </c>
+      <c r="H28">
+        <v>0.04610979935253407</v>
+      </c>
+      <c r="I28">
+        <v>-0.06122358593727492</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.0004177732980646564</v>
+        <v>0.001008678582838451</v>
       </c>
       <c r="C29">
-        <v>-0.02327146416933963</v>
+        <v>0.02930088442857688</v>
       </c>
       <c r="D29">
-        <v>0.1064383471722702</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.1061018202637512</v>
+      </c>
+      <c r="E29">
+        <v>0.03125176197128811</v>
+      </c>
+      <c r="F29">
+        <v>-0.02874535077204464</v>
+      </c>
+      <c r="G29">
+        <v>0.05949906373326079</v>
+      </c>
+      <c r="H29">
+        <v>-0.08415776733241294</v>
+      </c>
+      <c r="I29">
+        <v>-0.03658841747342517</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02065360696369413</v>
+        <v>0.01780842715108271</v>
       </c>
       <c r="C30">
-        <v>-0.06498689203791395</v>
+        <v>0.08081073171896534</v>
       </c>
       <c r="D30">
-        <v>0.1721201172985078</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1681158035606386</v>
+      </c>
+      <c r="E30">
+        <v>0.03251644298531683</v>
+      </c>
+      <c r="F30">
+        <v>-0.03808364271759042</v>
+      </c>
+      <c r="G30">
+        <v>0.04433080855574633</v>
+      </c>
+      <c r="H30">
+        <v>-0.03166138245761174</v>
+      </c>
+      <c r="I30">
+        <v>0.03626699119057265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.04229571258808042</v>
+        <v>0.02311823280408496</v>
       </c>
       <c r="C31">
-        <v>-0.08370416302544287</v>
+        <v>0.08867747557784536</v>
       </c>
       <c r="D31">
-        <v>0.07472116628490387</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.04792308986427165</v>
+      </c>
+      <c r="E31">
+        <v>0.005371626631899769</v>
+      </c>
+      <c r="F31">
+        <v>-0.02146559272905708</v>
+      </c>
+      <c r="G31">
+        <v>0.02815792557987071</v>
+      </c>
+      <c r="H31">
+        <v>-0.02213696863748272</v>
+      </c>
+      <c r="I31">
+        <v>-0.06509734534700808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.03086295012835825</v>
+        <v>0.02509217803593733</v>
       </c>
       <c r="C32">
-        <v>-0.03212648254653642</v>
+        <v>0.04048563243621541</v>
       </c>
       <c r="D32">
-        <v>0.1259820198551403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.12697661783955</v>
+      </c>
+      <c r="E32">
+        <v>0.0002466769423103682</v>
+      </c>
+      <c r="F32">
+        <v>-0.04255788828744222</v>
+      </c>
+      <c r="G32">
+        <v>0.03424770223290414</v>
+      </c>
+      <c r="H32">
+        <v>-0.01598441185067177</v>
+      </c>
+      <c r="I32">
+        <v>-0.07016525376725519</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01912574978346228</v>
+        <v>0.01514040904256008</v>
       </c>
       <c r="C33">
-        <v>-0.04553525494546031</v>
+        <v>0.05681650470106154</v>
       </c>
       <c r="D33">
-        <v>0.1581387601532767</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1378527892206161</v>
+      </c>
+      <c r="E33">
+        <v>0.009435728485177253</v>
+      </c>
+      <c r="F33">
+        <v>-0.02244231507873001</v>
+      </c>
+      <c r="G33">
+        <v>0.03595995545410182</v>
+      </c>
+      <c r="H33">
+        <v>-0.04931049070654346</v>
+      </c>
+      <c r="I33">
+        <v>-0.01722695497688688</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02904540128959985</v>
+        <v>0.01678180563856339</v>
       </c>
       <c r="C34">
-        <v>-0.06118745755712396</v>
+        <v>0.06481793822232772</v>
       </c>
       <c r="D34">
-        <v>0.0608634732231075</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.040131622438313</v>
+      </c>
+      <c r="E34">
+        <v>0.03039455324634301</v>
+      </c>
+      <c r="F34">
+        <v>0.03579086672211822</v>
+      </c>
+      <c r="G34">
+        <v>0.02287410704337542</v>
+      </c>
+      <c r="H34">
+        <v>-0.04832912160235267</v>
+      </c>
+      <c r="I34">
+        <v>-0.03277975641421796</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.001169541365157203</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.003468857727858811</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01284941528589387</v>
+      </c>
+      <c r="E35">
+        <v>0.001826135141970819</v>
+      </c>
+      <c r="F35">
+        <v>0.001506235992324622</v>
+      </c>
+      <c r="G35">
+        <v>0.0005917523144673028</v>
+      </c>
+      <c r="H35">
+        <v>-0.006010239608143807</v>
+      </c>
+      <c r="I35">
+        <v>0.001088377058574577</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01454717479868223</v>
+        <v>0.0140910684681888</v>
       </c>
       <c r="C36">
-        <v>-0.006375585539488231</v>
+        <v>0.01890073269131115</v>
       </c>
       <c r="D36">
-        <v>0.0998723833788515</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.08675077642061652</v>
+      </c>
+      <c r="E36">
+        <v>0.00256990063591963</v>
+      </c>
+      <c r="F36">
+        <v>-0.02921067000892901</v>
+      </c>
+      <c r="G36">
+        <v>0.0304589223099077</v>
+      </c>
+      <c r="H36">
+        <v>-0.05491055871915371</v>
+      </c>
+      <c r="I36">
+        <v>-0.01193585619188899</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1764,141 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.01391777639898397</v>
+        <v>0.01948815758617236</v>
       </c>
       <c r="C38">
-        <v>-0.01312179470207873</v>
+        <v>0.02015230565203713</v>
       </c>
       <c r="D38">
-        <v>0.08864395302804461</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.08526301224230132</v>
+      </c>
+      <c r="E38">
+        <v>-0.01540044295672168</v>
+      </c>
+      <c r="F38">
+        <v>0.01946410520937582</v>
+      </c>
+      <c r="G38">
+        <v>0.03447477093632951</v>
+      </c>
+      <c r="H38">
+        <v>-0.03702245654448341</v>
+      </c>
+      <c r="I38">
+        <v>0.002797846544644363</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.03070912934235559</v>
+        <v>0.01922394167551757</v>
       </c>
       <c r="C39">
-        <v>-0.05979780738642231</v>
+        <v>0.07692320149099706</v>
       </c>
       <c r="D39">
-        <v>0.1152341222459609</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1065945284945478</v>
+      </c>
+      <c r="E39">
+        <v>0.0425491680685043</v>
+      </c>
+      <c r="F39">
+        <v>0.01445541602973465</v>
+      </c>
+      <c r="G39">
+        <v>0.03282351879651548</v>
+      </c>
+      <c r="H39">
+        <v>-0.09032507718059947</v>
+      </c>
+      <c r="I39">
+        <v>0.02585677619696766</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01373116596345888</v>
+        <v>0.007952473743250137</v>
       </c>
       <c r="C40">
-        <v>-0.04430254891954827</v>
+        <v>0.04271328696230242</v>
       </c>
       <c r="D40">
-        <v>0.1235875108659755</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.1038359918940374</v>
+      </c>
+      <c r="E40">
+        <v>0.01179503531928324</v>
+      </c>
+      <c r="F40">
+        <v>-0.02850112269398815</v>
+      </c>
+      <c r="G40">
+        <v>0.2400094741429939</v>
+      </c>
+      <c r="H40">
+        <v>0.02426330978640312</v>
+      </c>
+      <c r="I40">
+        <v>-0.1112879239241694</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.02475743566074635</v>
+        <v>0.02270368084429564</v>
       </c>
       <c r="C41">
-        <v>-0.002352057468414469</v>
+        <v>0.01316319620688355</v>
       </c>
       <c r="D41">
-        <v>0.08329226798492521</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05882958301543569</v>
+      </c>
+      <c r="E41">
+        <v>-0.01927956541183722</v>
+      </c>
+      <c r="F41">
+        <v>-0.0138274719592965</v>
+      </c>
+      <c r="G41">
+        <v>0.03278980210027999</v>
+      </c>
+      <c r="H41">
+        <v>-0.02175025112021076</v>
+      </c>
+      <c r="I41">
+        <v>-0.04873448067788747</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1909,83 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01956838751762369</v>
+        <v>0.01628324384959087</v>
       </c>
       <c r="C43">
-        <v>-0.01186899516885892</v>
+        <v>0.01948886130477968</v>
       </c>
       <c r="D43">
-        <v>0.1044928052444944</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.07448932213840782</v>
+      </c>
+      <c r="E43">
+        <v>-0.00545965963366387</v>
+      </c>
+      <c r="F43">
+        <v>-0.008724960474005001</v>
+      </c>
+      <c r="G43">
+        <v>0.04516646243960919</v>
+      </c>
+      <c r="H43">
+        <v>-0.05103717211593928</v>
+      </c>
+      <c r="I43">
+        <v>-0.04894733373786009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.004775649540900586</v>
+        <v>0.006261060324736665</v>
       </c>
       <c r="C44">
-        <v>-0.04130874027910052</v>
+        <v>0.04497516724580929</v>
       </c>
       <c r="D44">
-        <v>0.1050819373064595</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1155006731076109</v>
+      </c>
+      <c r="E44">
+        <v>-0.0004970797541975267</v>
+      </c>
+      <c r="F44">
+        <v>-0.02252888549736976</v>
+      </c>
+      <c r="G44">
+        <v>0.04224988142794113</v>
+      </c>
+      <c r="H44">
+        <v>-0.04499821012730792</v>
+      </c>
+      <c r="I44">
+        <v>0.03196687261119862</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1996,112 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.01126911178130396</v>
+        <v>0.005373006381463129</v>
       </c>
       <c r="C46">
-        <v>-0.02993942520100173</v>
+        <v>0.0367967524489942</v>
       </c>
       <c r="D46">
-        <v>0.1152034765692841</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.09891121398476524</v>
+      </c>
+      <c r="E46">
+        <v>0.016375886930309</v>
+      </c>
+      <c r="F46">
+        <v>-0.02066041453737249</v>
+      </c>
+      <c r="G46">
+        <v>0.05821862068954616</v>
+      </c>
+      <c r="H46">
+        <v>-0.09633961393127881</v>
+      </c>
+      <c r="I46">
+        <v>-0.04197083623139959</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.0805681535809474</v>
+        <v>0.05252806174324926</v>
       </c>
       <c r="C47">
-        <v>-0.102748968270164</v>
+        <v>0.1152056679628945</v>
       </c>
       <c r="D47">
-        <v>0.05679123533608976</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.02992099092275717</v>
+      </c>
+      <c r="E47">
+        <v>-0.01100959337004021</v>
+      </c>
+      <c r="F47">
+        <v>-0.0006241301325719432</v>
+      </c>
+      <c r="G47">
+        <v>-0.0216382554569651</v>
+      </c>
+      <c r="H47">
+        <v>-0.01931004403161014</v>
+      </c>
+      <c r="I47">
+        <v>-0.1209083613335601</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008611780114293012</v>
+        <v>0.008234537675031574</v>
       </c>
       <c r="C48">
-        <v>-0.0194570149033873</v>
+        <v>0.02726714566418698</v>
       </c>
       <c r="D48">
-        <v>0.0971267224180685</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.08940720325768854</v>
+      </c>
+      <c r="E48">
+        <v>-0.01614468857098375</v>
+      </c>
+      <c r="F48">
+        <v>-0.03330535836046782</v>
+      </c>
+      <c r="G48">
+        <v>0.04994630433699978</v>
+      </c>
+      <c r="H48">
+        <v>-0.06712320163319885</v>
+      </c>
+      <c r="I48">
+        <v>-0.01502199269636854</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +2112,83 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.0401727128776505</v>
+        <v>0.02410344259861239</v>
       </c>
       <c r="C50">
-        <v>-0.06597033935233977</v>
+        <v>0.07463749245435543</v>
       </c>
       <c r="D50">
-        <v>0.07936816603075282</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05912555303340028</v>
+      </c>
+      <c r="E50">
+        <v>0.0004428066720540578</v>
+      </c>
+      <c r="F50">
+        <v>-0.01102515939752327</v>
+      </c>
+      <c r="G50">
+        <v>0.03750124816994021</v>
+      </c>
+      <c r="H50">
+        <v>-0.0001833815467053712</v>
+      </c>
+      <c r="I50">
+        <v>-0.09673538945266501</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.007501548326191876</v>
+        <v>0.00608523045188394</v>
       </c>
       <c r="C51">
-        <v>-0.01408602370448557</v>
+        <v>0.02204642604421284</v>
       </c>
       <c r="D51">
-        <v>0.08333843121701691</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0839817055630679</v>
+      </c>
+      <c r="E51">
+        <v>0.02693677794281703</v>
+      </c>
+      <c r="F51">
+        <v>-0.03524052668075182</v>
+      </c>
+      <c r="G51">
+        <v>0.06563683899881531</v>
+      </c>
+      <c r="H51">
+        <v>-0.0446412471022881</v>
+      </c>
+      <c r="I51">
+        <v>-0.02004448193105619</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2199,141 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.09732927857774029</v>
+        <v>0.07057433174323821</v>
       </c>
       <c r="C53">
-        <v>-0.123655230552845</v>
+        <v>0.1439521033964632</v>
       </c>
       <c r="D53">
-        <v>0.01458904628608697</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.002054284700733686</v>
+      </c>
+      <c r="E53">
+        <v>-0.04782165418306021</v>
+      </c>
+      <c r="F53">
+        <v>-0.07107685512495997</v>
+      </c>
+      <c r="G53">
+        <v>0.02557261286097095</v>
+      </c>
+      <c r="H53">
+        <v>0.01809055171108677</v>
+      </c>
+      <c r="I53">
+        <v>-0.0859923334573814</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01603656303320983</v>
+        <v>0.0124166354572915</v>
       </c>
       <c r="C54">
-        <v>-0.02398144437724105</v>
+        <v>0.03571434766263837</v>
       </c>
       <c r="D54">
-        <v>0.1181104463199076</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.0975707965621635</v>
+      </c>
+      <c r="E54">
+        <v>0.006737860564531829</v>
+      </c>
+      <c r="F54">
+        <v>-0.0009268287361165157</v>
+      </c>
+      <c r="G54">
+        <v>0.06529953044438352</v>
+      </c>
+      <c r="H54">
+        <v>-0.04915619037964559</v>
+      </c>
+      <c r="I54">
+        <v>-0.05936151552313003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.089114581037416</v>
+        <v>0.06088044802490183</v>
       </c>
       <c r="C55">
-        <v>-0.1026045026150949</v>
+        <v>0.1201625557691226</v>
       </c>
       <c r="D55">
-        <v>0.0001188505610711983</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.011067862484715</v>
+      </c>
+      <c r="E55">
+        <v>-0.008514315715652445</v>
+      </c>
+      <c r="F55">
+        <v>-0.03684833170946402</v>
+      </c>
+      <c r="G55">
+        <v>0.03651243394284188</v>
+      </c>
+      <c r="H55">
+        <v>0.031117193464537</v>
+      </c>
+      <c r="I55">
+        <v>-0.07094150345062432</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1212678516225887</v>
+        <v>0.08356101461298522</v>
       </c>
       <c r="C56">
-        <v>-0.13434717762039</v>
+        <v>0.1671058544578973</v>
       </c>
       <c r="D56">
-        <v>-0.005971280714099159</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01631702476290097</v>
+      </c>
+      <c r="E56">
+        <v>-0.03876385449231236</v>
+      </c>
+      <c r="F56">
+        <v>-0.03552791139806925</v>
+      </c>
+      <c r="G56">
+        <v>0.04308769547276164</v>
+      </c>
+      <c r="H56">
+        <v>0.05449249609980455</v>
+      </c>
+      <c r="I56">
+        <v>-0.073206916201758</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2344,141 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.02123448748119967</v>
+        <v>-0.008756782091082278</v>
       </c>
       <c r="C58">
-        <v>-0.03064641929235029</v>
+        <v>0.04715945133605041</v>
       </c>
       <c r="D58">
-        <v>0.2214785561947727</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.2834406483169419</v>
+      </c>
+      <c r="E58">
+        <v>-0.04058491378275311</v>
+      </c>
+      <c r="F58">
+        <v>-0.09681994408314069</v>
+      </c>
+      <c r="G58">
+        <v>0.05509290322618017</v>
+      </c>
+      <c r="H58">
+        <v>0.1540156484176823</v>
+      </c>
+      <c r="I58">
+        <v>0.07125183124514399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1711128330742337</v>
+        <v>0.2230179427437043</v>
       </c>
       <c r="C59">
-        <v>0.1488455048738191</v>
+        <v>-0.1061969077072847</v>
       </c>
       <c r="D59">
-        <v>0.05315135530129091</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0645774502251498</v>
+      </c>
+      <c r="E59">
+        <v>-0.03707288408069223</v>
+      </c>
+      <c r="F59">
+        <v>-0.007786664935347401</v>
+      </c>
+      <c r="G59">
+        <v>-0.006820963724626885</v>
+      </c>
+      <c r="H59">
+        <v>0.01696208928216862</v>
+      </c>
+      <c r="I59">
+        <v>0.008196905354307333</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.2039492556862967</v>
+        <v>0.1724006165138327</v>
       </c>
       <c r="C60">
-        <v>-0.09847919778581336</v>
+        <v>0.1503057179838469</v>
       </c>
       <c r="D60">
-        <v>0.124137939806121</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.07213907912625615</v>
+      </c>
+      <c r="E60">
+        <v>0.2724790925796817</v>
+      </c>
+      <c r="F60">
+        <v>0.1523975724963705</v>
+      </c>
+      <c r="G60">
+        <v>-0.2785061714663142</v>
+      </c>
+      <c r="H60">
+        <v>0.08242374870107733</v>
+      </c>
+      <c r="I60">
+        <v>0.04704967740539587</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03580212222601448</v>
+        <v>0.02290789270625468</v>
       </c>
       <c r="C61">
-        <v>-0.05884238026590875</v>
+        <v>0.07166662649417101</v>
       </c>
       <c r="D61">
-        <v>0.1142349589902531</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.08912243729095712</v>
+      </c>
+      <c r="E61">
+        <v>0.03061961925801961</v>
+      </c>
+      <c r="F61">
+        <v>0.01661197208531513</v>
+      </c>
+      <c r="G61">
+        <v>0.01885321017288249</v>
+      </c>
+      <c r="H61">
+        <v>-0.08344468023180106</v>
+      </c>
+      <c r="I61">
+        <v>-0.03611311503963203</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2489,228 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01117078730875517</v>
+        <v>0.007775567905016176</v>
       </c>
       <c r="C63">
-        <v>-0.02642920746051851</v>
+        <v>0.03603688530513541</v>
       </c>
       <c r="D63">
-        <v>0.09495745388737589</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.0775793869547796</v>
+      </c>
+      <c r="E63">
+        <v>0.02236996504930268</v>
+      </c>
+      <c r="F63">
+        <v>-0.01764132243306831</v>
+      </c>
+      <c r="G63">
+        <v>0.0341489146811598</v>
+      </c>
+      <c r="H63">
+        <v>-0.04609061428008868</v>
+      </c>
+      <c r="I63">
+        <v>-0.0184403055723805</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05072697198093928</v>
+        <v>0.0295246594082281</v>
       </c>
       <c r="C64">
-        <v>-0.08254564687992771</v>
+        <v>0.09361066828902946</v>
       </c>
       <c r="D64">
-        <v>0.05565318537977273</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04620072051528736</v>
+      </c>
+      <c r="E64">
+        <v>0.02309844596774581</v>
+      </c>
+      <c r="F64">
+        <v>-0.03500441809771809</v>
+      </c>
+      <c r="G64">
+        <v>-0.00915516459899806</v>
+      </c>
+      <c r="H64">
+        <v>-0.1101952461168128</v>
+      </c>
+      <c r="I64">
+        <v>-0.03092183769930715</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02516212607759344</v>
+        <v>0.01933328792506451</v>
       </c>
       <c r="C65">
-        <v>-0.02049173818373828</v>
+        <v>0.03811868978951016</v>
       </c>
       <c r="D65">
-        <v>0.1204213297070385</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1088625735419395</v>
+      </c>
+      <c r="E65">
+        <v>0.03722272305043169</v>
+      </c>
+      <c r="F65">
+        <v>-0.01404391149765508</v>
+      </c>
+      <c r="G65">
+        <v>0.01565009864983364</v>
+      </c>
+      <c r="H65">
+        <v>-0.006255546157272037</v>
+      </c>
+      <c r="I65">
+        <v>-0.01041661209765939</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.03003068468932648</v>
+        <v>0.01781444629719248</v>
       </c>
       <c r="C66">
-        <v>-0.06697991353456539</v>
+        <v>0.08803506557802739</v>
       </c>
       <c r="D66">
-        <v>0.1243927404285215</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1320141032537279</v>
+      </c>
+      <c r="E66">
+        <v>0.035673805919343</v>
+      </c>
+      <c r="F66">
+        <v>0.02061083889575097</v>
+      </c>
+      <c r="G66">
+        <v>0.01700245978491973</v>
+      </c>
+      <c r="H66">
+        <v>-0.05043597061957483</v>
+      </c>
+      <c r="I66">
+        <v>0.03408547973785264</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.03533944516973552</v>
+        <v>0.03343506653839611</v>
       </c>
       <c r="C67">
-        <v>-0.02327941079551422</v>
+        <v>0.03198259340973985</v>
       </c>
       <c r="D67">
-        <v>0.04429215105824478</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03435064790143269</v>
+      </c>
+      <c r="E67">
+        <v>0.0001906122359322656</v>
+      </c>
+      <c r="F67">
+        <v>0.03702716022150794</v>
+      </c>
+      <c r="G67">
+        <v>0.03211997719806665</v>
+      </c>
+      <c r="H67">
+        <v>-0.0493767349260831</v>
+      </c>
+      <c r="I67">
+        <v>-0.0001146972564741922</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2105812405502058</v>
+        <v>0.2551716090719857</v>
       </c>
       <c r="C68">
-        <v>0.1699147101974208</v>
+        <v>-0.1136626671238409</v>
       </c>
       <c r="D68">
-        <v>0.02756383130260338</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.03155653992417984</v>
+      </c>
+      <c r="E68">
+        <v>-0.002490067860684545</v>
+      </c>
+      <c r="F68">
+        <v>-0.02590193435496843</v>
+      </c>
+      <c r="G68">
+        <v>0.0306533216947386</v>
+      </c>
+      <c r="H68">
+        <v>0.05478405675839056</v>
+      </c>
+      <c r="I68">
+        <v>-0.02793007569527089</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.06630042894785554</v>
+        <v>0.04034969809046561</v>
       </c>
       <c r="C69">
-        <v>-0.1116454223543128</v>
+        <v>0.116535321893787</v>
       </c>
       <c r="D69">
-        <v>0.08453103233839007</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04560833944955248</v>
+      </c>
+      <c r="E69">
+        <v>0.006628015545862046</v>
+      </c>
+      <c r="F69">
+        <v>0.004754405340684569</v>
+      </c>
+      <c r="G69">
+        <v>-0.01215164353746894</v>
+      </c>
+      <c r="H69">
+        <v>-0.02219866101065009</v>
+      </c>
+      <c r="I69">
+        <v>-0.09056509217082022</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2721,750 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2044656466232152</v>
+        <v>0.249873182596046</v>
       </c>
       <c r="C71">
-        <v>0.1809571471721909</v>
+        <v>-0.127634171243946</v>
       </c>
       <c r="D71">
-        <v>0.03132773848531181</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.0297938238729663</v>
+      </c>
+      <c r="E71">
+        <v>-0.01200180761418504</v>
+      </c>
+      <c r="F71">
+        <v>-0.03431277150417632</v>
+      </c>
+      <c r="G71">
+        <v>0.05115200674941937</v>
+      </c>
+      <c r="H71">
+        <v>0.03752495926874849</v>
+      </c>
+      <c r="I71">
+        <v>-0.1285581603202985</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1058655711661852</v>
+        <v>0.07555918162643485</v>
       </c>
       <c r="C72">
-        <v>-0.07670881858832639</v>
+        <v>0.1136624960681748</v>
       </c>
       <c r="D72">
-        <v>0.08105093241959378</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.06840626416252515</v>
+      </c>
+      <c r="E72">
+        <v>0.0874898861924004</v>
+      </c>
+      <c r="F72">
+        <v>0.00303538317527224</v>
+      </c>
+      <c r="G72">
+        <v>0.01405925933475223</v>
+      </c>
+      <c r="H72">
+        <v>-0.04597750422645273</v>
+      </c>
+      <c r="I72">
+        <v>-0.006512649277809242</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1860713755735278</v>
+        <v>0.1542434940922345</v>
       </c>
       <c r="C73">
-        <v>-0.05796281605157452</v>
+        <v>0.1218820004414006</v>
       </c>
       <c r="D73">
-        <v>0.1717105918586748</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.06685094028096</v>
+      </c>
+      <c r="E73">
+        <v>0.4591660274100197</v>
+      </c>
+      <c r="F73">
+        <v>0.2285091174297832</v>
+      </c>
+      <c r="G73">
+        <v>-0.406487349797467</v>
+      </c>
+      <c r="H73">
+        <v>-0.02577761431952956</v>
+      </c>
+      <c r="I73">
+        <v>-0.02277030490944998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.09891462051688558</v>
+        <v>0.06672069252070738</v>
       </c>
       <c r="C74">
-        <v>-0.1068583373240715</v>
+        <v>0.1273280816600564</v>
       </c>
       <c r="D74">
-        <v>-0.02341789316680062</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03331136580680931</v>
+      </c>
+      <c r="E74">
+        <v>-0.02598193137385403</v>
+      </c>
+      <c r="F74">
+        <v>-0.06522394524713092</v>
+      </c>
+      <c r="G74">
+        <v>0.001791146789951291</v>
+      </c>
+      <c r="H74">
+        <v>0.03303779973162994</v>
+      </c>
+      <c r="I74">
+        <v>-0.08022175825166772</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2456429384905763</v>
+        <v>0.1752671752040269</v>
       </c>
       <c r="C75">
-        <v>-0.1913346060812846</v>
+        <v>0.2452603364263406</v>
       </c>
       <c r="D75">
-        <v>-0.1068566332167265</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.12937454716281</v>
+      </c>
+      <c r="E75">
+        <v>-0.08268265201196678</v>
+      </c>
+      <c r="F75">
+        <v>0.02377973825304674</v>
+      </c>
+      <c r="G75">
+        <v>0.04773574108191914</v>
+      </c>
+      <c r="H75">
+        <v>0.04810586772688138</v>
+      </c>
+      <c r="I75">
+        <v>-0.07111723123373818</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1356606076989265</v>
+        <v>0.09255292643247222</v>
       </c>
       <c r="C76">
-        <v>-0.1364069176557195</v>
+        <v>0.1652730230224514</v>
       </c>
       <c r="D76">
-        <v>0.00284288275958435</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01979327158553832</v>
+      </c>
+      <c r="E76">
+        <v>-0.03790513215389668</v>
+      </c>
+      <c r="F76">
+        <v>-0.01970077512832837</v>
+      </c>
+      <c r="G76">
+        <v>0.04518952436511542</v>
+      </c>
+      <c r="H76">
+        <v>0.01681002331115011</v>
+      </c>
+      <c r="I76">
+        <v>-0.06914231942656801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.02824913150730702</v>
+        <v>0.03684449858779233</v>
       </c>
       <c r="C77">
-        <v>-0.08136201214837259</v>
+        <v>0.09119984045776115</v>
       </c>
       <c r="D77">
-        <v>0.07365580029937997</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.2276076212423016</v>
+      </c>
+      <c r="E77">
+        <v>-0.6843191238450398</v>
+      </c>
+      <c r="F77">
+        <v>0.3919525283048649</v>
+      </c>
+      <c r="G77">
+        <v>-0.3870926050105159</v>
+      </c>
+      <c r="H77">
+        <v>0.2005352862714466</v>
+      </c>
+      <c r="I77">
+        <v>-0.1321541064586191</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03056446896177295</v>
+        <v>0.02649147168579569</v>
       </c>
       <c r="C78">
-        <v>-0.06595607927425037</v>
+        <v>0.079428909040636</v>
       </c>
       <c r="D78">
-        <v>0.1524393345269538</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.140886550001687</v>
+      </c>
+      <c r="E78">
+        <v>0.04431553628973291</v>
+      </c>
+      <c r="F78">
+        <v>-0.0301985250825579</v>
+      </c>
+      <c r="G78">
+        <v>-0.001218458171534824</v>
+      </c>
+      <c r="H78">
+        <v>-0.02708666244454517</v>
+      </c>
+      <c r="I78">
+        <v>0.05961879551458012</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.06366403467385881</v>
+        <v>0.04446701979301663</v>
       </c>
       <c r="C79">
-        <v>-0.1343174944268122</v>
+        <v>0.1493921154163147</v>
       </c>
       <c r="D79">
-        <v>-0.1074458882714321</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.04808819490218484</v>
+      </c>
+      <c r="E79">
+        <v>-0.1536529949230252</v>
+      </c>
+      <c r="F79">
+        <v>-0.767053846065812</v>
+      </c>
+      <c r="G79">
+        <v>-0.4853860557434236</v>
+      </c>
+      <c r="H79">
+        <v>-0.06495260983799192</v>
+      </c>
+      <c r="I79">
+        <v>0.1611970383582824</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.01600654319485236</v>
+        <v>0.009607789426037626</v>
       </c>
       <c r="C80">
-        <v>-0.0570344585244686</v>
+        <v>0.05762627697466868</v>
       </c>
       <c r="D80">
-        <v>0.04130587566754382</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03725044241417542</v>
+      </c>
+      <c r="E80">
+        <v>0.0138381741256253</v>
+      </c>
+      <c r="F80">
+        <v>-0.01173505801537659</v>
+      </c>
+      <c r="G80">
+        <v>0.07487951553798407</v>
+      </c>
+      <c r="H80">
+        <v>-0.002377059650046791</v>
+      </c>
+      <c r="I80">
+        <v>-0.00257453739362858</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1223868620154243</v>
+        <v>0.07829302345163404</v>
       </c>
       <c r="C81">
-        <v>-0.1406299803909929</v>
+        <v>0.1614570483443914</v>
       </c>
       <c r="D81">
-        <v>-0.0747159329920824</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.08275848126917616</v>
+      </c>
+      <c r="E81">
+        <v>-0.07754287487570016</v>
+      </c>
+      <c r="F81">
+        <v>-0.05288766322646683</v>
+      </c>
+      <c r="G81">
+        <v>0.07266558151051519</v>
+      </c>
+      <c r="H81">
+        <v>-0.01152429284630817</v>
+      </c>
+      <c r="I81">
+        <v>-0.11066721082261</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2332197067682771</v>
+        <v>0.1447068103727084</v>
       </c>
       <c r="C82">
-        <v>-0.2842059435704987</v>
+        <v>0.2996809398630211</v>
       </c>
       <c r="D82">
-        <v>-0.231368959826711</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2296405173408047</v>
+      </c>
+      <c r="E82">
+        <v>-0.04665989952951177</v>
+      </c>
+      <c r="F82">
+        <v>0.08203998585837848</v>
+      </c>
+      <c r="G82">
+        <v>0.07707402809764691</v>
+      </c>
+      <c r="H82">
+        <v>-0.00785483678500455</v>
+      </c>
+      <c r="I82">
+        <v>-0.08967736867209268</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.01337992357304156</v>
+        <v>0.001804089701501822</v>
       </c>
       <c r="C83">
-        <v>-0.06556189182986646</v>
+        <v>0.05772433636286028</v>
       </c>
       <c r="D83">
-        <v>0.05213702449443958</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05956624667163326</v>
+      </c>
+      <c r="E83">
+        <v>-0.09250980152319813</v>
+      </c>
+      <c r="F83">
+        <v>0.02308200319196628</v>
+      </c>
+      <c r="G83">
+        <v>0.04001415310558493</v>
+      </c>
+      <c r="H83">
+        <v>-0.04432631112761012</v>
+      </c>
+      <c r="I83">
+        <v>0.0286312608170517</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0006276021453192653</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.01350045749745932</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03279452200202418</v>
+      </c>
+      <c r="E84">
+        <v>-0.007317798748190127</v>
+      </c>
+      <c r="F84">
+        <v>-0.01765263954289286</v>
+      </c>
+      <c r="G84">
+        <v>0.03176324870567642</v>
+      </c>
+      <c r="H84">
+        <v>0.01129519077806988</v>
+      </c>
+      <c r="I84">
+        <v>0.03384680943395734</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1529871483409266</v>
+        <v>0.1023510774440853</v>
       </c>
       <c r="C85">
-        <v>-0.1402623238276908</v>
+        <v>0.1816456055733777</v>
       </c>
       <c r="D85">
-        <v>-0.06252897350226402</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.09385208817473668</v>
+      </c>
+      <c r="E85">
+        <v>-0.003363501209092634</v>
+      </c>
+      <c r="F85">
+        <v>-0.08120804635269763</v>
+      </c>
+      <c r="G85">
+        <v>0.01203165286055782</v>
+      </c>
+      <c r="H85">
+        <v>0.02918777668753743</v>
+      </c>
+      <c r="I85">
+        <v>-0.07562565633503456</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01359760064515986</v>
+        <v>0.01294381148005339</v>
       </c>
       <c r="C86">
-        <v>-0.02916617722907392</v>
+        <v>0.03213888811961386</v>
       </c>
       <c r="D86">
-        <v>0.1001384231948235</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1108204364470692</v>
+      </c>
+      <c r="E86">
+        <v>-0.04555346175935097</v>
+      </c>
+      <c r="F86">
+        <v>0.01650176137080502</v>
+      </c>
+      <c r="G86">
+        <v>0.01655593482526991</v>
+      </c>
+      <c r="H86">
+        <v>0.003017359847095928</v>
+      </c>
+      <c r="I86">
+        <v>-0.09185254367709865</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02474408420330955</v>
+        <v>0.02447271234925543</v>
       </c>
       <c r="C87">
-        <v>-0.02766485959181684</v>
+        <v>0.04671560494834111</v>
       </c>
       <c r="D87">
-        <v>0.1332152222556086</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1497799534410908</v>
+      </c>
+      <c r="E87">
+        <v>-0.01525893072530708</v>
+      </c>
+      <c r="F87">
+        <v>-0.03252458796739862</v>
+      </c>
+      <c r="G87">
+        <v>0.06117048839967971</v>
+      </c>
+      <c r="H87">
+        <v>-0.02176847260598715</v>
+      </c>
+      <c r="I87">
+        <v>0.07479741971319354</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.06111412629341054</v>
+        <v>0.0443284506810761</v>
       </c>
       <c r="C88">
-        <v>-0.04814349565374787</v>
+        <v>0.06533577168587799</v>
       </c>
       <c r="D88">
-        <v>0.04231637474206387</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.01418736309018191</v>
+      </c>
+      <c r="E88">
+        <v>0.01814836596521678</v>
+      </c>
+      <c r="F88">
+        <v>-0.02587661722132064</v>
+      </c>
+      <c r="G88">
+        <v>-0.001951533472680597</v>
+      </c>
+      <c r="H88">
+        <v>-0.01530741280738382</v>
+      </c>
+      <c r="I88">
+        <v>-0.0506419579242777</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3155617641719866</v>
+        <v>0.3810211980596657</v>
       </c>
       <c r="C89">
-        <v>0.3390749456808376</v>
+        <v>-0.235339122943347</v>
       </c>
       <c r="D89">
-        <v>0.0154086961808686</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.02391430366803159</v>
+      </c>
+      <c r="E89">
+        <v>-0.04673523423840689</v>
+      </c>
+      <c r="F89">
+        <v>-0.03606394638660217</v>
+      </c>
+      <c r="G89">
+        <v>0.07664738341920589</v>
+      </c>
+      <c r="H89">
+        <v>-0.1747640561827437</v>
+      </c>
+      <c r="I89">
+        <v>0.3315111561282929</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.256134006462413</v>
+        <v>0.3007469503294782</v>
       </c>
       <c r="C90">
-        <v>0.2422024809062407</v>
+        <v>-0.1577808366295477</v>
       </c>
       <c r="D90">
-        <v>0.03517155716584021</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.04067110190210314</v>
+      </c>
+      <c r="E90">
+        <v>-0.009047913573064932</v>
+      </c>
+      <c r="F90">
+        <v>0.01494309396545588</v>
+      </c>
+      <c r="G90">
+        <v>0.04869729248662513</v>
+      </c>
+      <c r="H90">
+        <v>0.04586487229942632</v>
+      </c>
+      <c r="I90">
+        <v>-0.04112910569230436</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1565368786151468</v>
+        <v>0.1041868954670314</v>
       </c>
       <c r="C91">
-        <v>-0.1866192354031231</v>
+        <v>0.2041477504231461</v>
       </c>
       <c r="D91">
-        <v>-0.09729700421523299</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1036351633710997</v>
+      </c>
+      <c r="E91">
+        <v>-0.0784849359434667</v>
+      </c>
+      <c r="F91">
+        <v>-0.07853356905470855</v>
+      </c>
+      <c r="G91">
+        <v>0.009563864487468394</v>
+      </c>
+      <c r="H91">
+        <v>0.02055659284274589</v>
+      </c>
+      <c r="I91">
+        <v>-0.09617465552632933</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2300255111620826</v>
+        <v>0.3025534745657483</v>
       </c>
       <c r="C92">
-        <v>0.2449936888040538</v>
+        <v>-0.1872401801301458</v>
       </c>
       <c r="D92">
-        <v>0.007348075444321659</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.02561546525642469</v>
+      </c>
+      <c r="E92">
+        <v>-0.09671339742906948</v>
+      </c>
+      <c r="F92">
+        <v>-0.04036526734301096</v>
+      </c>
+      <c r="G92">
+        <v>0.08124925852768927</v>
+      </c>
+      <c r="H92">
+        <v>-0.004268849741963759</v>
+      </c>
+      <c r="I92">
+        <v>-0.05527533191902856</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2802079988842712</v>
+        <v>0.3206137758271072</v>
       </c>
       <c r="C93">
-        <v>0.2605156607234531</v>
+        <v>-0.1709747376919305</v>
       </c>
       <c r="D93">
-        <v>0.0207033415360179</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.001720211126105906</v>
+      </c>
+      <c r="E93">
+        <v>0.03696073099563742</v>
+      </c>
+      <c r="F93">
+        <v>-0.01829169684947983</v>
+      </c>
+      <c r="G93">
+        <v>-0.03287419267451878</v>
+      </c>
+      <c r="H93">
+        <v>0.01881111022374877</v>
+      </c>
+      <c r="I93">
+        <v>-0.1062093044192796</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3140609238773787</v>
+        <v>0.2177965090738449</v>
       </c>
       <c r="C94">
-        <v>-0.2689979659764571</v>
+        <v>0.3391330843300482</v>
       </c>
       <c r="D94">
-        <v>-0.34031083361886</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.3526026239212993</v>
+      </c>
+      <c r="E94">
+        <v>-0.05123325922034157</v>
+      </c>
+      <c r="F94">
+        <v>0.1056409454795395</v>
+      </c>
+      <c r="G94">
+        <v>0.2809819923822362</v>
+      </c>
+      <c r="H94">
+        <v>0.08584059565132428</v>
+      </c>
+      <c r="I94">
+        <v>0.4034141086427543</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.05326396675164428</v>
+        <v>0.04578789058805235</v>
       </c>
       <c r="C95">
-        <v>-0.04193298043128617</v>
+        <v>0.06868020882190273</v>
       </c>
       <c r="D95">
-        <v>0.09684955891534085</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1046678056890029</v>
+      </c>
+      <c r="E95">
+        <v>-0.2036469668746798</v>
+      </c>
+      <c r="F95">
+        <v>0.2190338738259838</v>
+      </c>
+      <c r="G95">
+        <v>-0.1012113063007742</v>
+      </c>
+      <c r="H95">
+        <v>-0.5416761810993417</v>
+      </c>
+      <c r="I95">
+        <v>0.4843540026304933</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,38 +3475,83 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>2.756045680886089e-05</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.0001281753024334286</v>
       </c>
       <c r="D97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.0002291338500579321</v>
+      </c>
+      <c r="E97">
+        <v>6.447222299367499e-05</v>
+      </c>
+      <c r="F97">
+        <v>0.001320928799959282</v>
+      </c>
+      <c r="G97">
+        <v>-0.001004747230305752</v>
+      </c>
+      <c r="H97">
+        <v>-0.0006659691473707399</v>
+      </c>
+      <c r="I97">
+        <v>-0.0002744728741137586</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.157687408035514</v>
+        <v>0.1344218397622181</v>
       </c>
       <c r="C98">
-        <v>-0.070538070920657</v>
+        <v>0.1190317114248993</v>
       </c>
       <c r="D98">
-        <v>0.1022823682437555</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.0524292576809782</v>
+      </c>
+      <c r="E98">
+        <v>0.2918400995729609</v>
+      </c>
+      <c r="F98">
+        <v>0.1386141812411305</v>
+      </c>
+      <c r="G98">
+        <v>-0.2352009345020765</v>
+      </c>
+      <c r="H98">
+        <v>0.02520531364166342</v>
+      </c>
+      <c r="I98">
+        <v>-0.002988386604786781</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3562,25 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3591,83 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-2.673288004141656e-05</v>
+        <v>0.001353370467477649</v>
       </c>
       <c r="C101">
-        <v>-0.02283828940929897</v>
+        <v>0.02877228598274134</v>
       </c>
       <c r="D101">
-        <v>0.1067750013892481</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.1058278740527503</v>
+      </c>
+      <c r="E101">
+        <v>0.03042622105826395</v>
+      </c>
+      <c r="F101">
+        <v>-0.02894779076490312</v>
+      </c>
+      <c r="G101">
+        <v>0.0601763823625034</v>
+      </c>
+      <c r="H101">
+        <v>-0.08541613347046294</v>
+      </c>
+      <c r="I101">
+        <v>-0.03621641730924124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1095269115569707</v>
+        <v>0.06410754822325328</v>
       </c>
       <c r="C102">
-        <v>-0.1476205814499885</v>
+        <v>0.1472116754626373</v>
       </c>
       <c r="D102">
-        <v>-0.07974414496848976</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.09232722214675679</v>
+      </c>
+      <c r="E102">
+        <v>-0.03232811896017618</v>
+      </c>
+      <c r="F102">
+        <v>0.05841311828470836</v>
+      </c>
+      <c r="G102">
+        <v>0.006557740174428699</v>
+      </c>
+      <c r="H102">
+        <v>-0.03915664807439606</v>
+      </c>
+      <c r="I102">
+        <v>-0.04022647124812732</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3678,25 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3705,21 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
